--- a/ExcelToJs/excel_data/Task.xlsx
+++ b/ExcelToJs/excel_data/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="EveryDay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>任务1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,18 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name.string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc.string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerConditions.string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>redreshTime.float.array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,20 +142,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name.string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc.string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>redreshTime.float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>triggerCondition.string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>name.String</t>
+  </si>
+  <si>
+    <t>desc.String</t>
+  </si>
+  <si>
+    <t>triggerCondition.String</t>
+  </si>
+  <si>
+    <t>triggerConditions.String</t>
   </si>
 </sst>
 </file>
@@ -522,7 +510,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -538,16 +526,16 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -714,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -728,19 +716,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
